--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
   <si>
     <t>Protection(Y/N)</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Mimi Mobile Shop</t>
+  </si>
+  <si>
+    <t>ABC Communication</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,8 +1725,12 @@
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2">
+        <v>862453050198959</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>

--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
   <si>
     <t>Protection(Y/N)</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>ABC Communication</t>
+  </si>
+  <si>
+    <t>12.25.2021</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,16 +932,16 @@
         <v>862453051038493</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
-        <v>867623055523238</v>
+        <v>867623055026950</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>54</v>
@@ -955,13 +958,13 @@
         <v>26</v>
       </c>
       <c r="E15" s="2">
-        <v>867623055557731</v>
+        <v>867623055523238</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>54</v>
@@ -975,16 +978,20 @@
         <v>862453051050712</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2">
-        <v>867623055238118</v>
+        <v>867623055557731</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -994,10 +1001,10 @@
         <v>862453050194719</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
-        <v>867623055493531</v>
+        <v>867623055238118</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>30</v>
@@ -1016,7 +1023,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="2">
-        <v>867623055217672</v>
+        <v>867623055493531</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>30</v>
@@ -1032,20 +1039,16 @@
         <v>862453050373875</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2">
-        <v>867623054283693</v>
+        <v>867623055217672</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1058,13 +1061,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="2">
-        <v>867623055545454</v>
+        <v>867623054283693</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>54</v>
@@ -1081,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="2">
-        <v>867623055290754</v>
+        <v>867623055545454</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -1104,13 +1107,13 @@
         <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>867623055006531</v>
+        <v>867623055290754</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>54</v>
@@ -1124,16 +1127,16 @@
         <v>862453050199676</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2">
-        <v>867623053840196</v>
+        <v>867623055006531</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>54</v>
@@ -1147,16 +1150,16 @@
         <v>862453050523537</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2">
-        <v>867623055548995</v>
+        <v>867623053840196</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>54</v>
@@ -1173,13 +1176,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="2">
-        <v>867623054546677</v>
+        <v>867623055548995</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>54</v>
@@ -1196,13 +1199,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="2">
-        <v>867623054428470</v>
+        <v>867623054546677</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>54</v>
@@ -1219,13 +1222,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="2">
-        <v>867623055237979</v>
+        <v>867623054428470</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>54</v>
@@ -1239,16 +1242,20 @@
         <v>862453050518131</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2">
-        <v>867623055239256</v>
+        <v>867623055237979</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -1258,20 +1265,16 @@
         <v>862453050925997</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2">
-        <v>867623055556675</v>
+        <v>867623055239256</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1284,13 +1287,17 @@
         <v>47</v>
       </c>
       <c r="E30" s="2">
-        <v>867623055292115</v>
+        <v>867623055556675</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -1300,10 +1307,10 @@
         <v>862453050419298</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2">
-        <v>867623055291174</v>
+        <v>867623055292115</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>30</v>
@@ -1322,13 +1329,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="2">
-        <v>867623055674916</v>
+        <v>867623055291174</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -1338,10 +1345,10 @@
         <v>862453050409455</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2">
-        <v>867623056272892</v>
+        <v>867623055674916</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>30</v>
@@ -1360,13 +1367,13 @@
         <v>50</v>
       </c>
       <c r="E34" s="2">
-        <v>867623056273213</v>
+        <v>867623056272892</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -1379,7 +1386,7 @@
         <v>50</v>
       </c>
       <c r="E35" s="2">
-        <v>867623055293154</v>
+        <v>867623056273213</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>30</v>
@@ -1395,13 +1402,13 @@
         <v>862453050944972</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
-        <v>867623055292057</v>
+        <v>867623055293154</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -1414,20 +1421,16 @@
         <v>862453050579257</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2">
-        <v>867623055429451</v>
+        <v>867623055292057</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -1440,13 +1443,13 @@
         <v>56</v>
       </c>
       <c r="E38" s="2">
-        <v>867623054969598</v>
+        <v>867623055429451</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>54</v>
@@ -1460,16 +1463,16 @@
         <v>862453050940970</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2">
-        <v>867623053715935</v>
+        <v>867623054969598</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>54</v>
@@ -1486,13 +1489,13 @@
         <v>61</v>
       </c>
       <c r="E40" s="2">
-        <v>867623054927612</v>
+        <v>867623053715935</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>54</v>
@@ -1509,7 +1512,7 @@
         <v>61</v>
       </c>
       <c r="E41" s="2">
-        <v>867253050444932</v>
+        <v>867623054927612</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -1529,16 +1532,20 @@
         <v>862453050426293</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2">
-        <v>867623055483573</v>
+        <v>867253050444932</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -1551,7 +1558,7 @@
         <v>64</v>
       </c>
       <c r="E43" s="2">
-        <v>867623055240452</v>
+        <v>867623055483573</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>30</v>
@@ -1570,7 +1577,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="2">
-        <v>867623055205190</v>
+        <v>867623055240452</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>30</v>
@@ -1586,13 +1593,13 @@
         <v>862453050839552</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2">
-        <v>867623055239934</v>
+        <v>867623055205190</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -1605,13 +1612,13 @@
         <v>862453050930419</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2">
-        <v>867623055704051</v>
+        <v>867623055239934</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -1624,12 +1631,14 @@
         <v>862453050369634</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2">
-        <v>867623055240296</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>867623055704051</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
@@ -1640,8 +1649,12 @@
       <c r="B48" s="2">
         <v>862453050408853</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="2">
+        <v>867623055240296</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>

--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer Imei List" sheetId="1" r:id="rId1"/>
     <sheet name="MC_RD House_Imei List" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="99">
   <si>
     <t>Protection(Y/N)</t>
   </si>
@@ -242,13 +244,88 @@
   </si>
   <si>
     <t>12.25.2021</t>
+  </si>
+  <si>
+    <t>862453050839552</t>
+  </si>
+  <si>
+    <t>862453050905072</t>
+  </si>
+  <si>
+    <t>862453050923398</t>
+  </si>
+  <si>
+    <t>862453050925997</t>
+  </si>
+  <si>
+    <t>862453050928850</t>
+  </si>
+  <si>
+    <t>862453050930419</t>
+  </si>
+  <si>
+    <t>862453050936218</t>
+  </si>
+  <si>
+    <t>862453050938297</t>
+  </si>
+  <si>
+    <t>862453050938818</t>
+  </si>
+  <si>
+    <t>862453050940970</t>
+  </si>
+  <si>
+    <t>862453050944972</t>
+  </si>
+  <si>
+    <t>862453050979457</t>
+  </si>
+  <si>
+    <t>862453050980778</t>
+  </si>
+  <si>
+    <t>862453050981032</t>
+  </si>
+  <si>
+    <t>862453050999877</t>
+  </si>
+  <si>
+    <t>862453051036133</t>
+  </si>
+  <si>
+    <t>862453051038493</t>
+  </si>
+  <si>
+    <t>862453051044434</t>
+  </si>
+  <si>
+    <t>862453051045399</t>
+  </si>
+  <si>
+    <t>862453051050712</t>
+  </si>
+  <si>
+    <t>862453051051777</t>
+  </si>
+  <si>
+    <t>862453051328613</t>
+  </si>
+  <si>
+    <t>C25Y Price Protection Retail Wise</t>
+  </si>
+  <si>
+    <t>Imei</t>
+  </si>
+  <si>
+    <t>January 12 er aggee 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +341,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +368,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,11 +417,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +495,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,8 +2652,8 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,4 +3577,1008 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>862453050922473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>862453050939311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>862453050900354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>862453050578275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>862453050579513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>862453050940533</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>862453050579257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>862453050411592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>862453050412616</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>862453050413499</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>862453050411758</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>862453050411014</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>862453050410875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>862453050413515</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>862453050411899</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>862453050412632</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>862453050410339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>862453050510435</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>862453050505559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>862453050508298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>862453050375698</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>862453050508470</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>862453050506730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>862453050510278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>862453050507019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>862453050507837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>862453050508710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>862453051315438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>862453051306874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>862453051309472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>862453051317111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>862453051307898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>862453051317194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>862453051311833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>862453051308979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>862453051318754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>862453051315032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>862453050419132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>862453050940236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>862453051047833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>862453051047734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>862453050578432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>862453050570793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>862453050579117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>862453050578796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>862453051043550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>862453051044871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>862453051045753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>862453051040713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>862453051043931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>862453051047999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>862453050578317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>862453051045175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>862453050577939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>862453050578655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>862453051045290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>862453050194578</v>
+      </c>
+      <c r="C4" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>862453050332178</v>
+      </c>
+      <c r="C5" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>862453050656378</v>
+      </c>
+      <c r="C6" s="23">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>862453050408671</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="18">
+        <v>862453050938297</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>862453050366739</v>
+      </c>
+      <c r="C9" s="23">
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>862453050371259</v>
+      </c>
+      <c r="C10" s="23">
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>862453050411915</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18">
+        <v>862453051328613</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>862453050410198</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>862453050426731</v>
+      </c>
+      <c r="C14" s="23">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="18">
+        <v>862453051038493</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="18">
+        <v>862453050928850</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="18">
+        <v>862453051050712</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>862453050194719</v>
+      </c>
+      <c r="C18" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>862453050373131</v>
+      </c>
+      <c r="C19" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>862453050373875</v>
+      </c>
+      <c r="C20" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18">
+        <v>862453050936218</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4">
+        <v>862453050418456</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="18">
+        <v>862453051051777</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4">
+        <v>862453050199676</v>
+      </c>
+      <c r="C24" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4">
+        <v>862453050523537</v>
+      </c>
+      <c r="C25" s="23">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>862453050410776</v>
+      </c>
+      <c r="C26" s="23">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4">
+        <v>862453050198850</v>
+      </c>
+      <c r="C27" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4">
+        <v>862453050489176</v>
+      </c>
+      <c r="C28" s="23">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4">
+        <v>862453050518131</v>
+      </c>
+      <c r="C29" s="23">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="18">
+        <v>862453050925997</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4">
+        <v>862453050893070</v>
+      </c>
+      <c r="C31" s="23">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="21">
+        <v>862453050419298</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="21">
+        <v>862453050410214</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="21">
+        <v>862453050409455</v>
+      </c>
+      <c r="C34" s="22">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="18">
+        <v>862453050938818</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="21">
+        <v>862453050428190</v>
+      </c>
+      <c r="C36" s="22">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="18">
+        <v>862453050944972</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="21">
+        <v>862453050579257</v>
+      </c>
+      <c r="C38" s="22">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="18">
+        <v>862453051045399</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="18">
+        <v>862453050940970</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4">
+        <v>862453050197373</v>
+      </c>
+      <c r="C41" s="23">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="18">
+        <v>862453050999877</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="4">
+        <v>862453050426293</v>
+      </c>
+      <c r="C43" s="23">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="18">
+        <v>862453051036133</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="18">
+        <v>862453050980778</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="18">
+        <v>862453050839552</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="18">
+        <v>862453050930419</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="4">
+        <v>862453050369634</v>
+      </c>
+      <c r="C48" s="23">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="21">
+        <v>862453050408853</v>
+      </c>
+      <c r="C49" s="22">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="18">
+        <v>862453050923398</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="18">
+        <v>862453050981032</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="18">
+        <v>862453051044434</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4">
+        <v>862453050900115</v>
+      </c>
+      <c r="C53" s="23">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="4">
+        <v>862453050508199</v>
+      </c>
+      <c r="C54" s="23">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="18">
+        <v>862453050979457</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="4">
+        <v>862453050198959</v>
+      </c>
+      <c r="C56" s="23">
+        <v>44522</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -3583,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer Imei List" sheetId="1" r:id="rId1"/>
     <sheet name="MC_RD House_Imei List" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="C25Y Final" sheetId="5" r:id="rId4"/>
+    <sheet name="C25s128 Final" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="103">
   <si>
     <t>Protection(Y/N)</t>
   </si>
@@ -186,9 +187,6 @@
     <t>Bismillah</t>
   </si>
   <si>
-    <t>C25s Protection Pabe Na Bola Hoyese</t>
-  </si>
-  <si>
     <t>31.10.2021</t>
   </si>
   <si>
@@ -318,7 +316,22 @@
     <t>Imei</t>
   </si>
   <si>
-    <t>January 12 er aggee 2022</t>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Lifting Date</t>
+  </si>
+  <si>
+    <t>No Adj:</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Before 12 January 2022 No Adjusted.</t>
+  </si>
+  <si>
+    <t>C25Y</t>
   </si>
 </sst>
 </file>
@@ -349,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,14 +387,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -450,11 +457,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,20 +535,39 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -814,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="D1:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,13 +866,17 @@
     <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="D1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,7 +977,7 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,7 +998,7 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,7 +1019,7 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,7 +1040,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,7 +1103,7 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1125,7 +1168,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,7 +1271,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,7 +1294,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,7 +1317,7 @@
         <v>34</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,10 +1360,10 @@
         <v>6</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,7 +1386,7 @@
         <v>42</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1409,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,7 +1455,7 @@
         <v>45</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1497,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,7 +1641,7 @@
         <v>862453051045399</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2">
         <v>867623055429451</v>
@@ -1607,10 +1650,10 @@
         <v>6</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,7 +1664,7 @@
         <v>862453050940970</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2">
         <v>867623054969598</v>
@@ -1630,10 +1673,10 @@
         <v>6</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,7 +1687,7 @@
         <v>862453050197373</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2">
         <v>867623053715935</v>
@@ -1653,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1710,7 @@
         <v>862453050999877</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2">
         <v>867623054927612</v>
@@ -1676,21 +1719,21 @@
         <v>6</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2">
         <v>862453050426293</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2">
         <v>867253050444932</v>
@@ -1699,21 +1742,21 @@
         <v>6</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2">
         <v>862453051036133</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2">
         <v>867623055483573</v>
@@ -1726,13 +1769,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>862453050980778</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2">
         <v>867623055240452</v>
@@ -1745,13 +1788,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
         <v>862453050839552</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2">
         <v>867623055205190</v>
@@ -1764,13 +1807,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>862453050930419</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2">
         <v>867623055239934</v>
@@ -1783,13 +1826,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>862453050369634</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2">
         <v>867623055704051</v>
@@ -1802,13 +1845,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2">
         <v>862453050408853</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2">
         <v>867623055240296</v>
@@ -1819,7 +1862,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>862453050923398</v>
@@ -1832,7 +1875,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2">
         <v>862453050981032</v>
@@ -1845,7 +1888,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2">
         <v>862453051044434</v>
@@ -1858,7 +1901,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2">
         <v>862453050900115</v>
@@ -1871,7 +1914,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2">
         <v>862453050508199</v>
@@ -1884,7 +1927,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2">
         <v>862453050979457</v>
@@ -1897,7 +1940,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2">
         <v>862453050198959</v>
@@ -2637,8 +2680,11 @@
       <c r="F157" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="F3:F135">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2652,8 +2698,8 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A57"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3649,7 @@
         <v>862453050922473</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3611,7 +3657,7 @@
         <v>862453050939311</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,7 +3665,7 @@
         <v>862453050900354</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,7 +3673,7 @@
         <v>862453050578275</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3635,7 +3681,7 @@
         <v>862453050579513</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,7 +3689,7 @@
         <v>862453050940533</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,7 +3697,7 @@
         <v>862453050579257</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,7 +3705,7 @@
         <v>862453050411592</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,7 +3713,7 @@
         <v>862453050412616</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,7 +3721,7 @@
         <v>862453050413499</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3683,7 +3729,7 @@
         <v>862453050411758</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,7 +3737,7 @@
         <v>862453050411014</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,7 +3745,7 @@
         <v>862453050410875</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,7 +3753,7 @@
         <v>862453050413515</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,7 +3761,7 @@
         <v>862453050411899</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,7 +3769,7 @@
         <v>862453050412632</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,7 +3777,7 @@
         <v>862453050410339</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,7 +3785,7 @@
         <v>862453050510435</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,7 +3793,7 @@
         <v>862453050505559</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,7 +3801,7 @@
         <v>862453050508298</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3763,7 +3809,7 @@
         <v>862453050375698</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3817,7 @@
         <v>862453050508470</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,46 +3998,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -4001,8 +4064,13 @@
       <c r="C4" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -4012,8 +4080,13 @@
       <c r="C5" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -4023,8 +4096,13 @@
       <c r="C6" s="23">
         <v>44531</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -4034,8 +4112,13 @@
       <c r="C7" s="23">
         <v>44531</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -4045,8 +4128,13 @@
       <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26">
+        <v>460</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -4056,8 +4144,13 @@
       <c r="C9" s="23">
         <v>44524</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
@@ -4067,8 +4160,13 @@
       <c r="C10" s="23">
         <v>44524</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
@@ -4078,8 +4176,13 @@
       <c r="C11" s="23">
         <v>44531</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -4089,8 +4192,13 @@
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
+        <v>460</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -4100,8 +4208,13 @@
       <c r="C13" s="23">
         <v>44525</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -4111,8 +4224,13 @@
       <c r="C14" s="23">
         <v>44571</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -4122,8 +4240,13 @@
       <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
+        <v>460</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -4133,8 +4256,13 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26">
+        <v>460</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
@@ -4144,8 +4272,13 @@
       <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
+        <v>460</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -4155,8 +4288,13 @@
       <c r="C18" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
@@ -4166,8 +4304,13 @@
       <c r="C19" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
@@ -4177,8 +4320,13 @@
       <c r="C20" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
@@ -4188,8 +4336,13 @@
       <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26">
+        <v>460</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
@@ -4199,8 +4352,13 @@
       <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26">
+        <v>460</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
@@ -4210,8 +4368,13 @@
       <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
+        <v>460</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
@@ -4221,8 +4384,13 @@
       <c r="C24" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
@@ -4232,8 +4400,13 @@
       <c r="C25" s="23">
         <v>44529</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
@@ -4243,8 +4416,13 @@
       <c r="C26" s="23">
         <v>44536</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
@@ -4254,8 +4432,13 @@
       <c r="C27" s="23">
         <v>44522</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -4265,8 +4448,13 @@
       <c r="C28" s="23">
         <v>44557</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
@@ -4276,8 +4464,13 @@
       <c r="C29" s="23">
         <v>44527</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>40</v>
       </c>
@@ -4287,8 +4480,13 @@
       <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26">
+        <v>460</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>41</v>
       </c>
@@ -4298,8 +4496,13 @@
       <c r="C31" s="23">
         <v>44537</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>41</v>
       </c>
@@ -4309,8 +4512,13 @@
       <c r="C32" s="22">
         <v>44598</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26">
+        <v>460</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>46</v>
       </c>
@@ -4320,8 +4528,13 @@
       <c r="C33" s="22">
         <v>44606</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26">
+        <v>460</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>48</v>
       </c>
@@ -4331,8 +4544,13 @@
       <c r="C34" s="22">
         <v>44574</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26">
+        <v>460</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>48</v>
       </c>
@@ -4342,8 +4560,13 @@
       <c r="C35" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26">
+        <v>460</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>49</v>
       </c>
@@ -4353,8 +4576,13 @@
       <c r="C36" s="22">
         <v>44599</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26">
+        <v>460</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
@@ -4364,8 +4592,13 @@
       <c r="C37" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26">
+        <v>460</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>50</v>
       </c>
@@ -4375,8 +4608,13 @@
       <c r="C38" s="22">
         <v>44608</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26">
+        <v>460</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
@@ -4386,8 +4624,13 @@
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26">
+        <v>460</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>51</v>
       </c>
@@ -4397,8 +4640,13 @@
       <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26">
+        <v>460</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>52</v>
       </c>
@@ -4408,8 +4656,13 @@
       <c r="C41" s="23">
         <v>44523</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>53</v>
       </c>
@@ -4419,10 +4672,15 @@
       <c r="C42" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26">
+        <v>460</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4">
         <v>862453050426293</v>
@@ -4430,10 +4688,15 @@
       <c r="C43" s="23">
         <v>44542</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="18">
         <v>862453051036133</v>
@@ -4441,10 +4704,15 @@
       <c r="C44" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26">
+        <v>460</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="18">
         <v>862453050980778</v>
@@ -4452,133 +4720,942 @@
       <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="18">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26">
+        <v>460</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="18">
         <v>862453050839552</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="18">
-        <v>862453050930419</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26">
+        <v>460</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="4">
+        <v>61</v>
+      </c>
+      <c r="B48" s="18">
+        <v>862453050930419</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26">
+        <v>460</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="4">
         <v>862453050369634</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C49" s="23">
         <v>44556</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="21">
+      <c r="D49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="21">
         <v>862453050408853</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C50" s="22">
         <v>44605</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26">
+        <v>460</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="18">
         <v>862453050923398</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="18">
-        <v>862453050981032</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26">
+        <v>460</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="18">
-        <v>862453051044434</v>
+        <v>862453050981032</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26">
+        <v>460</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="18">
+        <v>862453051044434</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26">
+        <v>460</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="4">
+        <v>862453050900115</v>
+      </c>
+      <c r="C54" s="23">
+        <v>44569</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="4">
-        <v>862453050900115</v>
-      </c>
-      <c r="C53" s="23">
-        <v>44569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="B55" s="4">
+        <v>862453050508199</v>
+      </c>
+      <c r="C55" s="23">
+        <v>44565</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="4">
-        <v>862453050508199</v>
-      </c>
-      <c r="C54" s="23">
-        <v>44565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="B56" s="18">
+        <v>862453050979457</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26">
+        <v>460</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="4">
+        <v>862453050198959</v>
+      </c>
+      <c r="C57" s="23">
+        <v>44522</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A46:F46"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="110" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>867623055304837</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>867623055654116</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>867623056272470</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>867623054339214</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>867623055024013</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>867623055027339</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>867623054540654</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>867623055127717</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>867623056272330</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>867623055296413</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>867623055238290</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>867623055026950</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>867623055523238</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>867623055557731</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <v>867623055238118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>867623055493531</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>867623055217672</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>867623054283693</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2">
+        <v>867623055545454</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>867623055290754</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>867623055006531</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>867623053840196</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>867623055548995</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>867623054546677</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
+        <v>867623054428470</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>867623055237979</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>867623055239256</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2">
+        <v>867623055556675</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>867623055292115</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2">
+        <v>867623055291174</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>867623055674916</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>867623056272892</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>867623056273213</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>867623055293154</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <v>867623055292057</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>867623055429451</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2">
+        <v>867623054969598</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2">
+        <v>867623053715935</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
+        <v>867623054927612</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>867253050444932</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2">
+        <v>867623055483573</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2">
+        <v>867623055240452</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2">
+        <v>867623055205190</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
+        <v>867623055239934</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2">
+        <v>867623055704051</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="18">
-        <v>862453050979457</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="4">
-        <v>862453050198959</v>
-      </c>
-      <c r="C56" s="23">
-        <v>44522</v>
-      </c>
+      <c r="B48" s="2">
+        <v>867623055240296</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2022/Realme/Others/Price Protection (16.02.2022).xlsx
+++ b/2022/Realme/Others/Price Protection (16.02.2022).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer Imei List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="114">
   <si>
     <t>Protection(Y/N)</t>
   </si>
@@ -332,13 +332,46 @@
   </si>
   <si>
     <t>C25Y</t>
+  </si>
+  <si>
+    <t>03.11.2021</t>
+  </si>
+  <si>
+    <t>01.01.2022</t>
+  </si>
+  <si>
+    <t>11.02.2021</t>
+  </si>
+  <si>
+    <t>12.18.2021</t>
+  </si>
+  <si>
+    <t>11.07.2021</t>
+  </si>
+  <si>
+    <t>01.20.2022</t>
+  </si>
+  <si>
+    <t>C25s(4+128) Price Protection Retail Wise</t>
+  </si>
+  <si>
+    <t>Before 25 January 2022 No Adjusted.</t>
+  </si>
+  <si>
+    <t>Stiker Given Not OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total= </t>
+  </si>
+  <si>
+    <t>Total=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +388,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -388,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,48 +482,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,27 +547,40 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,10 +896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
       <c r="D1" s="10" t="s">
         <v>64</v>
       </c>
@@ -4000,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,29 +4035,29 @@
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4044,10 +4069,10 @@
       <c r="C3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>97</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -4064,10 +4089,10 @@
       <c r="C4" s="23">
         <v>44522</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="26"/>
+      <c r="D4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4080,10 +4105,10 @@
       <c r="C5" s="23">
         <v>44522</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,10 +4121,10 @@
       <c r="C6" s="23">
         <v>44531</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="26"/>
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,10 +4137,10 @@
       <c r="C7" s="23">
         <v>44531</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="26"/>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,8 +4153,8 @@
       <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24">
         <v>460</v>
       </c>
       <c r="F8" s="13"/>
@@ -4144,10 +4169,10 @@
       <c r="C9" s="23">
         <v>44524</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="26"/>
+      <c r="D9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4160,10 +4185,10 @@
       <c r="C10" s="23">
         <v>44524</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="26"/>
+      <c r="D10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,10 +4201,10 @@
       <c r="C11" s="23">
         <v>44531</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="D11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,8 +4217,8 @@
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <v>460</v>
       </c>
       <c r="F12" s="13"/>
@@ -4208,10 +4233,10 @@
       <c r="C13" s="23">
         <v>44525</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="26"/>
+      <c r="D13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,10 +4249,10 @@
       <c r="C14" s="23">
         <v>44571</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="26"/>
+      <c r="D14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,8 +4265,8 @@
       <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24">
         <v>460</v>
       </c>
       <c r="F15" s="13"/>
@@ -4256,8 +4281,8 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24">
         <v>460</v>
       </c>
       <c r="F16" s="13"/>
@@ -4272,8 +4297,8 @@
       <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24">
         <v>460</v>
       </c>
       <c r="F17" s="13"/>
@@ -4288,10 +4313,10 @@
       <c r="C18" s="23">
         <v>44522</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="26"/>
+      <c r="D18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,10 +4329,10 @@
       <c r="C19" s="23">
         <v>44522</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="26"/>
+      <c r="D19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,10 +4345,10 @@
       <c r="C20" s="23">
         <v>44522</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="26"/>
+      <c r="D20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,8 +4361,8 @@
       <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24">
         <v>460</v>
       </c>
       <c r="F21" s="13"/>
@@ -4352,8 +4377,8 @@
       <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
         <v>460</v>
       </c>
       <c r="F22" s="13"/>
@@ -4368,8 +4393,8 @@
       <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24">
         <v>460</v>
       </c>
       <c r="F23" s="13"/>
@@ -4384,10 +4409,10 @@
       <c r="C24" s="23">
         <v>44522</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="26"/>
+      <c r="D24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,10 +4425,10 @@
       <c r="C25" s="23">
         <v>44529</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="26"/>
+      <c r="D25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,10 +4441,10 @@
       <c r="C26" s="23">
         <v>44536</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="26"/>
+      <c r="D26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,10 +4457,10 @@
       <c r="C27" s="23">
         <v>44522</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="26"/>
+      <c r="D27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,10 +4473,10 @@
       <c r="C28" s="23">
         <v>44557</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="26"/>
+      <c r="D28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,10 +4489,10 @@
       <c r="C29" s="23">
         <v>44527</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="26"/>
+      <c r="D29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="24"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4480,8 +4505,8 @@
       <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24">
         <v>460</v>
       </c>
       <c r="F30" s="13"/>
@@ -4496,10 +4521,10 @@
       <c r="C31" s="23">
         <v>44537</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="26"/>
+      <c r="D31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="24"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4512,8 +4537,8 @@
       <c r="C32" s="22">
         <v>44598</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24">
         <v>460</v>
       </c>
       <c r="F32" s="13"/>
@@ -4528,8 +4553,8 @@
       <c r="C33" s="22">
         <v>44606</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24">
         <v>460</v>
       </c>
       <c r="F33" s="13"/>
@@ -4544,8 +4569,8 @@
       <c r="C34" s="22">
         <v>44574</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24">
         <v>460</v>
       </c>
       <c r="F34" s="13"/>
@@ -4560,8 +4585,8 @@
       <c r="C35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24">
         <v>460</v>
       </c>
       <c r="F35" s="13"/>
@@ -4576,8 +4601,8 @@
       <c r="C36" s="22">
         <v>44599</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24">
         <v>460</v>
       </c>
       <c r="F36" s="13"/>
@@ -4592,8 +4617,8 @@
       <c r="C37" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
         <v>460</v>
       </c>
       <c r="F37" s="13"/>
@@ -4608,8 +4633,8 @@
       <c r="C38" s="22">
         <v>44608</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24">
         <v>460</v>
       </c>
       <c r="F38" s="13"/>
@@ -4624,8 +4649,8 @@
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24">
         <v>460</v>
       </c>
       <c r="F39" s="13"/>
@@ -4640,8 +4665,8 @@
       <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24">
         <v>460</v>
       </c>
       <c r="F40" s="13"/>
@@ -4656,10 +4681,10 @@
       <c r="C41" s="23">
         <v>44523</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="26"/>
+      <c r="D41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="24"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,8 +4697,8 @@
       <c r="C42" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24">
         <v>460</v>
       </c>
       <c r="F42" s="13"/>
@@ -4688,10 +4713,10 @@
       <c r="C43" s="23">
         <v>44542</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="26"/>
+      <c r="D43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="24"/>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,8 +4729,8 @@
       <c r="C44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24">
         <v>460</v>
       </c>
       <c r="F44" s="13"/>
@@ -4720,32 +4745,40 @@
       <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24">
         <v>460</v>
       </c>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="18">
+        <v>862453050839552</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24">
+        <v>460</v>
+      </c>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="18">
-        <v>862453050839552</v>
+        <v>862453050930419</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
         <v>460</v>
       </c>
       <c r="F47" s="13"/>
@@ -4754,167 +4787,164 @@
       <c r="A48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="18">
-        <v>862453050930419</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="4">
+        <v>862453050369634</v>
+      </c>
+      <c r="C48" s="23">
+        <v>44556</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="21">
+        <v>862453050408853</v>
+      </c>
+      <c r="C49" s="22">
+        <v>44605</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24">
+        <v>460</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="18">
+        <v>862453050923398</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26">
-        <v>460</v>
-      </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="4">
-        <v>862453050369634</v>
-      </c>
-      <c r="C49" s="23">
-        <v>44556</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="21">
-        <v>862453050408853</v>
-      </c>
-      <c r="C50" s="22">
-        <v>44605</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24">
         <v>460</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" s="18">
-        <v>862453050923398</v>
+        <v>862453050981032</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24">
         <v>460</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" s="18">
-        <v>862453050981032</v>
+        <v>862453051044434</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24">
         <v>460</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="18">
-        <v>862453051044434</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26">
-        <v>460</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B53" s="4">
+        <v>862453050900115</v>
+      </c>
+      <c r="C53" s="23">
+        <v>44569</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="24"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4">
-        <v>862453050900115</v>
+        <v>862453050508199</v>
       </c>
       <c r="C54" s="23">
-        <v>44569</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="26"/>
+        <v>44565</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="24"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="4">
-        <v>862453050508199</v>
-      </c>
-      <c r="C55" s="23">
-        <v>44565</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="26"/>
+        <v>69</v>
+      </c>
+      <c r="B55" s="18">
+        <v>862453050979457</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24">
+        <v>460</v>
+      </c>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="18">
-        <v>862453050979457</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26">
-        <v>460</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B56" s="4">
+        <v>862453050198959</v>
+      </c>
+      <c r="C56" s="23">
+        <v>44522</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="24"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="4">
-        <v>862453050198959</v>
-      </c>
-      <c r="C57" s="23">
-        <v>44522</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="13"/>
+    <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34">
+        <f>SUM(E4:E56)</f>
+        <v>12880</v>
+      </c>
+      <c r="F57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
@@ -4924,738 +4954,825 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>867623055304837</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
+        <v>867623055304837</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
         <v>867623055654116</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="24">
+        <v>610</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>867623056272470</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>867623054339214</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
+        <v>610</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>867623055024013</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>867623054339214</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>867623055027339</v>
+        <v>867623055024013</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
+        <v>867623055027339</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
         <v>867623054540654</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>867623055127717</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>867623056272330</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
+        <v>610</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>867623055296413</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>867623055238290</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2">
+        <v>867623055238290</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24">
+        <v>610</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
         <v>867623055026950</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>867623055523238</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2">
+        <v>867623055523238</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
         <v>867623055557731</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>867623055238118</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2">
-        <v>867623055493531</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24">
+        <v>610</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>867623055217672</v>
+        <v>867623055493531</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
+        <v>610</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>867623054283693</v>
+        <v>867623055217672</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24">
+        <v>610</v>
+      </c>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>867623055545454</v>
+        <v>867623054283693</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>867623055290754</v>
+        <v>867623055545454</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2">
+        <v>867623055290754</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
         <v>867623055006531</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>867623053840196</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2">
-        <v>867623055548995</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2">
-        <v>867623054546677</v>
+        <v>867623055548995</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>867623054428470</v>
+        <v>867623054546677</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="2">
+        <v>867623054428470</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
         <v>867623055237979</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <v>867623055239256</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2">
-        <v>867623055239256</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2">
-        <v>867623055556675</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24">
+        <v>610</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="2">
+        <v>867623055556675</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2">
         <v>867623055292115</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2">
-        <v>867623055291174</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24">
+        <v>610</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="2">
-        <v>867623055674916</v>
+        <v>867623055291174</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24">
+        <v>610</v>
+      </c>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
-        <v>867623056272892</v>
+        <v>867623055674916</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25">
+        <v>610</v>
+      </c>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="2">
-        <v>867623056273213</v>
+        <v>867623056272892</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25">
+        <v>610</v>
+      </c>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="2">
-        <v>867623055293154</v>
+        <v>867623056273213</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24">
+        <v>610</v>
+      </c>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>867623055293154</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
+        <v>610</v>
+      </c>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>867623055292057</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2">
-        <v>867623055429451</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24">
+        <v>610</v>
+      </c>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="2">
+        <v>867623055429451</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2">
         <v>867623054969598</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="2">
-        <v>867623053715935</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="2">
-        <v>867623054927612</v>
+        <v>867623053715935</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="2">
+        <v>867623054927612</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2">
         <v>867253050444932</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2">
-        <v>867623055483573</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="2">
-        <v>867623055240452</v>
+        <v>867623055483573</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24">
+        <v>610</v>
+      </c>
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="2">
-        <v>867623055205190</v>
+        <v>867623055240452</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24">
+        <v>610</v>
+      </c>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2">
+        <v>867623055205190</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24">
+        <v>610</v>
+      </c>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>867623055239934</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
+        <v>610</v>
+      </c>
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>867623055704051</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24">
+        <v>610</v>
+      </c>
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2">
         <v>867623055240296</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24">
+        <v>610</v>
+      </c>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32">
+        <f>SUM(E4:E49)</f>
+        <v>12810</v>
+      </c>
+      <c r="F50" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C48">
+  <conditionalFormatting sqref="C4:C49">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>